--- a/src/main/resources/fsd.xlsx
+++ b/src/main/resources/fsd.xlsx
@@ -882,7 +882,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/resources/fsd.xlsx
+++ b/src/main/resources/fsd.xlsx
@@ -444,9 +444,6 @@
     <t>pr_installation_place</t>
   </si>
   <si>
-    <t>pc_object_nm</t>
-  </si>
-  <si>
     <t>cpl_object_nm</t>
   </si>
   <si>
@@ -457,6 +454,9 @@
   </si>
   <si>
     <t>cpl_parent_dispatcher_nm</t>
+  </si>
+  <si>
+    <t>pr_object_nm</t>
   </si>
 </sst>
 </file>
@@ -881,8 +881,8 @@
   <dimension ref="A1:J64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -942,7 +942,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E2" t="s">
         <v>129</v>
@@ -1169,7 +1169,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E14" t="s">
         <v>129</v>
@@ -1187,7 +1187,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>129</v>
@@ -1215,7 +1215,7 @@
         <v>29</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>129</v>
@@ -1942,7 +1942,7 @@
         <v>103</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E55" t="s">
         <v>128</v>

--- a/src/main/resources/fsd.xlsx
+++ b/src/main/resources/fsd.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Атрибуты" sheetId="1" r:id="rId1"/>
-    <sheet name="Легенда" sheetId="2" r:id="rId2"/>
+    <sheet name="s2t" sheetId="3" r:id="rId1"/>
+    <sheet name="Атрибуты" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Атрибуты!$A$1:$F$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Атрибуты!$A$1:$F$64</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="251">
   <si>
     <t>Тип данных</t>
   </si>
@@ -99,24 +99,6 @@
     <t>Тех поле</t>
   </si>
   <si>
-    <t>object</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Место установки(включая объект)</t>
-  </si>
-  <si>
-    <t>возможно исключить</t>
-  </si>
-  <si>
-    <t>добавить в mysql</t>
-  </si>
-  <si>
-    <t xml:space="preserve">place_id </t>
-  </si>
-  <si>
     <t>power_rank</t>
   </si>
   <si>
@@ -457,13 +439,355 @@
   </si>
   <si>
     <t>pr_object_nm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Место установки </t>
+  </si>
+  <si>
+    <t>РУ (ТП, ЩСУ, Шкаф силовой)</t>
+  </si>
+  <si>
+    <t>АВР</t>
+  </si>
+  <si>
+    <t>Сборные шины</t>
+  </si>
+  <si>
+    <t>Автоматический выключатель</t>
+  </si>
+  <si>
+    <t>Пускатель магнитный</t>
+  </si>
+  <si>
+    <t>КЛ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Соединительная коробка </t>
+  </si>
+  <si>
+    <t>Нагревательный элемент</t>
+  </si>
+  <si>
+    <t>Щит освещения</t>
+  </si>
+  <si>
+    <t>Сеть освещения</t>
+  </si>
+  <si>
+    <t>Ремонтное освещение</t>
+  </si>
+  <si>
+    <t>Устройство самозапуска</t>
+  </si>
+  <si>
+    <t>Сварочный пост</t>
+  </si>
+  <si>
+    <t>Шкаф ЧРП</t>
+  </si>
+  <si>
+    <t>Общие данные</t>
+  </si>
+  <si>
+    <t>Дата добавления в excel</t>
+  </si>
+  <si>
+    <t>common_data</t>
+  </si>
+  <si>
+    <t>cd_add_excel_date</t>
+  </si>
+  <si>
+    <t>cd_object_nm</t>
+  </si>
+  <si>
+    <t>cd_installation_place</t>
+  </si>
+  <si>
+    <t>cd_dispatcher_nm</t>
+  </si>
+  <si>
+    <t>cd_parent_dispatcher_nm</t>
+  </si>
+  <si>
+    <t>cd_avr</t>
+  </si>
+  <si>
+    <t>cd_busbars</t>
+  </si>
+  <si>
+    <t>cd_auto_turn_off</t>
+  </si>
+  <si>
+    <t>cd_starter</t>
+  </si>
+  <si>
+    <t>cd_cable_line</t>
+  </si>
+  <si>
+    <t>cd_connecting_box</t>
+  </si>
+  <si>
+    <t>cd_heating_element</t>
+  </si>
+  <si>
+    <t>cd_changeover_panel_light</t>
+  </si>
+  <si>
+    <t>cd_light_net</t>
+  </si>
+  <si>
+    <t>cd_repair_lighting</t>
+  </si>
+  <si>
+    <t>Клеммный шкаф</t>
+  </si>
+  <si>
+    <t>cd_terminal_cabinet</t>
+  </si>
+  <si>
+    <t>cd_self_start_device</t>
+  </si>
+  <si>
+    <t>cd_welding_post</t>
+  </si>
+  <si>
+    <t>cd_rank_chrp</t>
+  </si>
+  <si>
+    <t>cd_ru</t>
+  </si>
+  <si>
+    <t>Рубильник</t>
+  </si>
+  <si>
+    <t>Предохранитель</t>
+  </si>
+  <si>
+    <t>cd_cutout</t>
+  </si>
+  <si>
+    <t>cd_fuse</t>
+  </si>
+  <si>
+    <t>Тепловое реле</t>
+  </si>
+  <si>
+    <t>cd_thermal_relay</t>
+  </si>
+  <si>
+    <t>Код вышестоящего технического места</t>
+  </si>
+  <si>
+    <t>Тип/марка ЕО (модель)</t>
+  </si>
+  <si>
+    <t>СерНомерИзготов</t>
+  </si>
+  <si>
+    <t>Дата ввода в экспл.</t>
+  </si>
+  <si>
+    <t>Дата технического обслуживания</t>
+  </si>
+  <si>
+    <t>Тип системы самозапуска</t>
+  </si>
+  <si>
+    <t>Напряжение коммутируемое ном.</t>
+  </si>
+  <si>
+    <t>Время задержки команд на пуск</t>
+  </si>
+  <si>
+    <t>Срок службы</t>
+  </si>
+  <si>
+    <t>Технологический номер / поле сортировки</t>
+  </si>
+  <si>
+    <t>Технологический номер</t>
+  </si>
+  <si>
+    <t>self_start_device</t>
+  </si>
+  <si>
+    <t>ssd_object_nm</t>
+  </si>
+  <si>
+    <t>ssd_installation_place</t>
+  </si>
+  <si>
+    <t>ssd_tech_num</t>
+  </si>
+  <si>
+    <t>ssd_unit_nm_short</t>
+  </si>
+  <si>
+    <t>ssd_unit_nm_full</t>
+  </si>
+  <si>
+    <t>ssd_parent_dispatcher_nm</t>
+  </si>
+  <si>
+    <t>ssd_brand</t>
+  </si>
+  <si>
+    <t>ssd_serie_and_number</t>
+  </si>
+  <si>
+    <t>ssd_commissioning_dt</t>
+  </si>
+  <si>
+    <t>ssd_tech_dt</t>
+  </si>
+  <si>
+    <t>ssd_type</t>
+  </si>
+  <si>
+    <t>ssd_voltage</t>
+  </si>
+  <si>
+    <t>ssd_time_delay</t>
+  </si>
+  <si>
+    <t>ssd_life_time</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>welding_post</t>
+  </si>
+  <si>
+    <t>Подробный текст технического  места</t>
+  </si>
+  <si>
+    <t>Напряжение номинальное, Uном</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Степень защиты  IP </t>
+  </si>
+  <si>
+    <t>Ток номинальный Iном</t>
+  </si>
+  <si>
+    <t>wp_object_nm</t>
+  </si>
+  <si>
+    <t>wp_installation_place</t>
+  </si>
+  <si>
+    <t>wp_parent_dispatcher_nm</t>
+  </si>
+  <si>
+    <t>wp_dispatcher_nm</t>
+  </si>
+  <si>
+    <t>wp_unit_nm_full</t>
+  </si>
+  <si>
+    <t>wp_tech_num</t>
+  </si>
+  <si>
+    <t>wp_commissioning_dt</t>
+  </si>
+  <si>
+    <t>wp_rating_voltage</t>
+  </si>
+  <si>
+    <t>wp_ipm</t>
+  </si>
+  <si>
+    <t>Ток номинальный, Iном</t>
+  </si>
+  <si>
+    <t>wp_rating_current</t>
+  </si>
+  <si>
+    <t>Двигатель</t>
+  </si>
+  <si>
+    <t>Тип оборудования</t>
+  </si>
+  <si>
+    <t>Мощность</t>
+  </si>
+  <si>
+    <t>Тип подшипника</t>
+  </si>
+  <si>
+    <t>Тип переднего подшипника</t>
+  </si>
+  <si>
+    <t>Тип заднего подшипника</t>
+  </si>
+  <si>
+    <t>Смазка</t>
+  </si>
+  <si>
+    <t>Количество подшипников, шт</t>
+  </si>
+  <si>
+    <t>Заводской номер</t>
+  </si>
+  <si>
+    <t>Класс напряжения</t>
+  </si>
+  <si>
+    <t>Частота вращения, об/мин</t>
+  </si>
+  <si>
+    <t>engine</t>
+  </si>
+  <si>
+    <t>e_object_nm</t>
+  </si>
+  <si>
+    <t>e_installation_place</t>
+  </si>
+  <si>
+    <t>e_dispatcher_nm</t>
+  </si>
+  <si>
+    <t>e_type</t>
+  </si>
+  <si>
+    <t>e_power</t>
+  </si>
+  <si>
+    <t>e_rotation_frequency</t>
+  </si>
+  <si>
+    <t>e_bearing_type</t>
+  </si>
+  <si>
+    <t>e_front_bearing_type</t>
+  </si>
+  <si>
+    <t>e_rear_bearing_type</t>
+  </si>
+  <si>
+    <t>e_front_bearing_count</t>
+  </si>
+  <si>
+    <t>e_rear_bearing_count</t>
+  </si>
+  <si>
+    <t>e_grease</t>
+  </si>
+  <si>
+    <t>e_voltage_class</t>
+  </si>
+  <si>
+    <t>e_factory_number</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -487,8 +811,40 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial Cyr"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF0070C0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -497,24 +853,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFCCFF99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -562,12 +912,53 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -575,8 +966,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -593,14 +982,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2 2" xfId="2"/>
     <cellStyle name="Обычный 3" xfId="1"/>
+    <cellStyle name="Обычный_Классификатор_ТМ_071119_ЛВВ" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -878,16 +1290,141 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J64"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1" t="s">
+        <v>211</v>
+      </c>
+      <c r="I1" t="s">
+        <v>212</v>
+      </c>
+      <c r="J1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="16"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="16"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="16"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="17"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="12"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J125"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E112" sqref="E112:E125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
     <col min="2" max="2" width="37.85546875" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
     <col min="4" max="4" width="24.7109375" customWidth="1"/>
@@ -927,35 +1464,35 @@
       <c r="I1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="6"/>
+      <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -964,16 +1501,16 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E3" t="s">
-        <v>129</v>
-      </c>
-      <c r="J3" s="7"/>
+        <v>123</v>
+      </c>
+      <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -982,16 +1519,16 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E4" t="s">
-        <v>128</v>
-      </c>
-      <c r="J4" s="7"/>
+        <v>122</v>
+      </c>
+      <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -1000,16 +1537,16 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E5" t="s">
-        <v>128</v>
-      </c>
-      <c r="J5" s="7"/>
+        <v>122</v>
+      </c>
+      <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -1018,16 +1555,16 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E6" t="s">
-        <v>134</v>
-      </c>
-      <c r="J6" s="7"/>
+        <v>128</v>
+      </c>
+      <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -1036,16 +1573,16 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E7" t="s">
-        <v>129</v>
-      </c>
-      <c r="J7" s="7"/>
+        <v>123</v>
+      </c>
+      <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -1054,16 +1591,16 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E8" t="s">
-        <v>129</v>
-      </c>
-      <c r="J8" s="7"/>
+        <v>123</v>
+      </c>
+      <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>92</v>
+      <c r="A9" s="8" t="s">
+        <v>86</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
@@ -1072,1092 +1609,2404 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E9" t="s">
-        <v>129</v>
-      </c>
-      <c r="J9" s="7"/>
+        <v>123</v>
+      </c>
+      <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>92</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="A10" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D10" t="s">
-        <v>75</v>
-      </c>
-      <c r="E10" t="s">
-        <v>53</v>
-      </c>
-      <c r="J10" s="7"/>
+      <c r="D10" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>92</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="A11" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D11" t="s">
-        <v>74</v>
-      </c>
-      <c r="E11" t="s">
-        <v>129</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="D11" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="F11" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="7"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>92</v>
-      </c>
-      <c r="B12" s="13" t="s">
+      <c r="A12" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="E12" t="s">
-        <v>128</v>
-      </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="14"/>
+      <c r="D12" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="11"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>92</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="A13" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E13" t="s">
-        <v>130</v>
-      </c>
-      <c r="J13" s="7"/>
+      <c r="D13" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>92</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>122</v>
+        <v>86</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>116</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>138</v>
+      <c r="D14" s="7" t="s">
+        <v>132</v>
       </c>
       <c r="E14" t="s">
-        <v>129</v>
-      </c>
-      <c r="J14" s="7"/>
+        <v>123</v>
+      </c>
+      <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C15" s="5" t="s">
+      <c r="A15" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>24</v>
-      </c>
+      <c r="D15" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>122</v>
+        <v>24</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>116</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="7"/>
+        <v>23</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E17" t="s">
-        <v>129</v>
-      </c>
-      <c r="H17" t="s">
-        <v>23</v>
-      </c>
-      <c r="I17" t="s">
-        <v>28</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>24</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E18" t="s">
-        <v>129</v>
-      </c>
-      <c r="J18" s="7"/>
+        <v>123</v>
+      </c>
+      <c r="J18" s="5"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D19" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E19" t="s">
-        <v>129</v>
-      </c>
-      <c r="J19" s="7"/>
+        <v>123</v>
+      </c>
+      <c r="J19" s="5"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D20" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E20" t="s">
-        <v>129</v>
-      </c>
-      <c r="J20" s="7"/>
+        <v>123</v>
+      </c>
+      <c r="J20" s="5"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D21" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E21" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F21" t="s">
-        <v>112</v>
-      </c>
-      <c r="J21" s="7"/>
+        <v>106</v>
+      </c>
+      <c r="J21" s="5"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D22" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E22" t="s">
-        <v>121</v>
-      </c>
-      <c r="J22" s="7"/>
+        <v>115</v>
+      </c>
+      <c r="J22" s="5"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D23" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E23" t="s">
-        <v>132</v>
-      </c>
-      <c r="J23" s="7"/>
+        <v>126</v>
+      </c>
+      <c r="J23" s="5"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E24" t="s">
-        <v>128</v>
-      </c>
-      <c r="J24" s="7"/>
+        <v>122</v>
+      </c>
+      <c r="J24" s="5"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D25" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E25" t="s">
-        <v>134</v>
-      </c>
-      <c r="J25" s="7"/>
+        <v>128</v>
+      </c>
+      <c r="J25" s="5"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D26" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E26" t="s">
-        <v>132</v>
-      </c>
-      <c r="J26" s="7"/>
+        <v>126</v>
+      </c>
+      <c r="J26" s="5"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
         <v>30</v>
       </c>
-      <c r="B27" t="s">
-        <v>36</v>
-      </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D27" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E27" t="s">
-        <v>128</v>
-      </c>
-      <c r="J27" s="7"/>
+        <v>122</v>
+      </c>
+      <c r="J27" s="5"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C28" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E28" t="s">
-        <v>128</v>
-      </c>
-      <c r="J28" s="7"/>
+        <v>122</v>
+      </c>
+      <c r="J28" s="5"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D29" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E29" t="s">
-        <v>129</v>
-      </c>
-      <c r="J29" s="7"/>
+        <v>123</v>
+      </c>
+      <c r="J29" s="5"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="E30" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="F30" s="10"/>
-      <c r="J30" s="7"/>
+      <c r="E30" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" s="8"/>
+      <c r="J30" s="5"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="8"/>
+      <c r="A31" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="6"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>122</v>
+        <v>36</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>116</v>
       </c>
       <c r="C32" t="s">
-        <v>41</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>127</v>
+        <v>35</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>121</v>
       </c>
       <c r="E32" t="s">
-        <v>129</v>
-      </c>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="7"/>
+        <v>123</v>
+      </c>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="5"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C33" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D33" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E33" t="s">
-        <v>129</v>
-      </c>
-      <c r="J33" s="7"/>
+        <v>123</v>
+      </c>
+      <c r="J33" s="5"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C34" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D34" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E34" t="s">
-        <v>129</v>
-      </c>
-      <c r="J34" s="7"/>
+        <v>123</v>
+      </c>
+      <c r="J34" s="5"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C35" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D35" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E35" t="s">
-        <v>129</v>
-      </c>
-      <c r="J35" s="7"/>
+        <v>123</v>
+      </c>
+      <c r="J35" s="5"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D36" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E36" t="s">
-        <v>129</v>
-      </c>
-      <c r="J36" s="7"/>
+        <v>123</v>
+      </c>
+      <c r="J36" s="5"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D37" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E37" t="s">
-        <v>129</v>
-      </c>
-      <c r="J37" s="7"/>
+        <v>123</v>
+      </c>
+      <c r="J37" s="5"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D38" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E38" t="s">
-        <v>121</v>
-      </c>
-      <c r="J38" s="7"/>
+        <v>115</v>
+      </c>
+      <c r="J38" s="5"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D39" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E39" t="s">
-        <v>128</v>
-      </c>
-      <c r="J39" s="7"/>
+        <v>122</v>
+      </c>
+      <c r="J39" s="5"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B40" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C40" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D40" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E40" t="s">
-        <v>121</v>
-      </c>
-      <c r="J40" s="7"/>
+        <v>115</v>
+      </c>
+      <c r="J40" s="5"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B41" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C41" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D41" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E41" t="s">
-        <v>128</v>
-      </c>
-      <c r="J41" s="7"/>
+        <v>122</v>
+      </c>
+      <c r="J41" s="5"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" t="s">
         <v>42</v>
       </c>
-      <c r="B42" t="s">
-        <v>48</v>
-      </c>
       <c r="C42" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D42" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E42" t="s">
-        <v>128</v>
-      </c>
-      <c r="J42" s="7"/>
+        <v>122</v>
+      </c>
+      <c r="J42" s="5"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B43" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C43" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D43" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E43" t="s">
-        <v>121</v>
-      </c>
-      <c r="J43" s="7"/>
+        <v>115</v>
+      </c>
+      <c r="J43" s="5"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B44" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C44" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D44" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E44" t="s">
-        <v>128</v>
-      </c>
-      <c r="J44" s="7"/>
+        <v>122</v>
+      </c>
+      <c r="J44" s="5"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B45" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C45" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D45" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E45" t="s">
-        <v>131</v>
-      </c>
-      <c r="J45" s="7"/>
+        <v>125</v>
+      </c>
+      <c r="J45" s="5"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B46" s="5" t="s">
+      <c r="A46" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C46" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="8"/>
+      <c r="C46" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="6"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B47" t="s">
-        <v>25</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>135</v>
+      <c r="A47" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>129</v>
       </c>
       <c r="E47" t="s">
-        <v>129</v>
-      </c>
-      <c r="J47" s="12"/>
+        <v>123</v>
+      </c>
+      <c r="J47" s="10"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>103</v>
+      <c r="A48" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B48" t="s">
+        <v>117</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>97</v>
       </c>
       <c r="D48" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E48" t="s">
-        <v>129</v>
-      </c>
-      <c r="J48" s="7"/>
+        <v>123</v>
+      </c>
+      <c r="J48" s="5"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="9" t="s">
-        <v>102</v>
+      <c r="A49" s="7" t="s">
+        <v>96</v>
       </c>
       <c r="B49" t="s">
         <v>14</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C49" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D49" t="s">
+        <v>94</v>
+      </c>
+      <c r="E49" t="s">
+        <v>123</v>
+      </c>
+      <c r="J49" s="5"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B50" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D50" t="s">
+        <v>95</v>
+      </c>
+      <c r="E50" t="s">
+        <v>123</v>
+      </c>
+      <c r="J50" s="5"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B51" t="s">
+        <v>87</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E51" t="s">
+        <v>123</v>
+      </c>
+      <c r="J51" s="5"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B52" t="s">
+        <v>88</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E52" t="s">
+        <v>122</v>
+      </c>
+      <c r="J52" s="5"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B53" t="s">
+        <v>89</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E53" t="s">
+        <v>122</v>
+      </c>
+      <c r="J53" s="5"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B54" t="s">
+        <v>33</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D54" t="s">
+        <v>102</v>
+      </c>
+      <c r="E54" t="s">
+        <v>122</v>
+      </c>
+      <c r="J54" s="5"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B55" t="s">
+        <v>99</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E55" t="s">
+        <v>122</v>
+      </c>
+      <c r="J55" s="5"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B56" t="s">
+        <v>90</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D56" t="s">
         <v>103</v>
       </c>
-      <c r="D49" t="s">
-        <v>100</v>
-      </c>
-      <c r="E49" t="s">
-        <v>129</v>
-      </c>
-      <c r="J49" s="7"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B50" t="s">
-        <v>31</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="D50" t="s">
-        <v>101</v>
-      </c>
-      <c r="E50" t="s">
-        <v>129</v>
-      </c>
-      <c r="J50" s="7"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B51" t="s">
+      <c r="E56" t="s">
+        <v>122</v>
+      </c>
+      <c r="J56" s="5"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B57" t="s">
+        <v>91</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E57" t="s">
+        <v>125</v>
+      </c>
+      <c r="J57" s="5"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B58" t="s">
+        <v>92</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D58" t="s">
+        <v>113</v>
+      </c>
+      <c r="E58" t="s">
+        <v>125</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="J58" s="5"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B59" t="s">
         <v>93</v>
       </c>
-      <c r="C51" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="E51" t="s">
-        <v>129</v>
-      </c>
-      <c r="J51" s="7"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B52" t="s">
-        <v>94</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="E52" t="s">
-        <v>128</v>
-      </c>
-      <c r="J52" s="7"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B53" t="s">
-        <v>95</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="D53" s="9" t="s">
+      <c r="C59" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D59" t="s">
         <v>107</v>
       </c>
-      <c r="E53" t="s">
-        <v>128</v>
-      </c>
-      <c r="J53" s="7"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B54" t="s">
-        <v>39</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="D54" t="s">
-        <v>108</v>
-      </c>
-      <c r="E54" t="s">
-        <v>128</v>
-      </c>
-      <c r="J54" s="7"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B55" t="s">
+      <c r="E59" t="s">
+        <v>125</v>
+      </c>
+      <c r="F59" t="s">
         <v>105</v>
       </c>
-      <c r="C55" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="E55" t="s">
-        <v>128</v>
-      </c>
-      <c r="J55" s="7"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B56" t="s">
+      <c r="J59" s="5"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="D56" t="s">
-        <v>109</v>
-      </c>
-      <c r="E56" t="s">
-        <v>128</v>
-      </c>
-      <c r="J56" s="7"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B57" t="s">
-        <v>97</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="E57" t="s">
-        <v>131</v>
-      </c>
-      <c r="J57" s="7"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B58" t="s">
-        <v>98</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="D58" t="s">
-        <v>119</v>
-      </c>
-      <c r="E58" t="s">
-        <v>131</v>
-      </c>
-      <c r="F58" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="J58" s="7"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B59" t="s">
-        <v>99</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="D59" t="s">
-        <v>113</v>
-      </c>
-      <c r="E59" t="s">
-        <v>131</v>
-      </c>
-      <c r="F59" t="s">
-        <v>111</v>
-      </c>
-      <c r="J59" s="7"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="9" t="s">
-        <v>102</v>
       </c>
       <c r="B60" t="s">
         <v>5</v>
       </c>
-      <c r="C60" s="9" t="s">
-        <v>103</v>
+      <c r="C60" s="7" t="s">
+        <v>97</v>
       </c>
       <c r="D60" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E60" t="s">
-        <v>134</v>
-      </c>
-      <c r="J60" s="7"/>
+        <v>128</v>
+      </c>
+      <c r="J60" s="5"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="9" t="s">
-        <v>102</v>
+      <c r="A61" s="7" t="s">
+        <v>96</v>
       </c>
       <c r="B61" t="s">
         <v>7</v>
       </c>
-      <c r="C61" s="9" t="s">
-        <v>103</v>
+      <c r="C61" s="7" t="s">
+        <v>97</v>
       </c>
       <c r="D61" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E61" t="s">
-        <v>129</v>
-      </c>
-      <c r="J61" s="7"/>
+        <v>123</v>
+      </c>
+      <c r="J61" s="5"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="9" t="s">
-        <v>102</v>
+      <c r="A62" s="7" t="s">
+        <v>96</v>
       </c>
       <c r="B62" t="s">
         <v>10</v>
       </c>
-      <c r="C62" s="9" t="s">
-        <v>103</v>
+      <c r="C62" s="7" t="s">
+        <v>97</v>
       </c>
       <c r="D62" t="s">
+        <v>110</v>
+      </c>
+      <c r="E62" t="s">
+        <v>47</v>
+      </c>
+      <c r="J62" s="5"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="5"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="6"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="D65" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="E65" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F65" s="14"/>
+      <c r="G65" s="14"/>
+      <c r="H65" s="14"/>
+      <c r="I65" s="14"/>
+      <c r="J65" s="10"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B66" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="E62" t="s">
-        <v>53</v>
-      </c>
-      <c r="J62" s="7"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B63" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="E63" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="F63" s="10"/>
-      <c r="G63" s="10"/>
-      <c r="H63" s="10"/>
-      <c r="I63" s="10"/>
-      <c r="J63" s="7"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C64" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="D64" s="5" t="s">
+      <c r="C66" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="5"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="8"/>
+      <c r="J67" s="5"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="8"/>
+      <c r="J68" s="5"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="8"/>
+      <c r="J69" s="5"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="8"/>
+      <c r="J70" s="5"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="8"/>
+      <c r="J71" s="5"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="8"/>
+      <c r="J72" s="5"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="8"/>
+      <c r="J73" s="5"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c r="H74" s="8"/>
+      <c r="I74" s="8"/>
+      <c r="J74" s="5"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="8"/>
+      <c r="I75" s="8"/>
+      <c r="J75" s="5"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8"/>
+      <c r="J76" s="5"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="8"/>
+      <c r="J77" s="5"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="8"/>
+      <c r="I78" s="8"/>
+      <c r="J78" s="5"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c r="H79" s="8"/>
+      <c r="I79" s="8"/>
+      <c r="J79" s="5"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="8"/>
+      <c r="J80" s="5"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="8"/>
+      <c r="I81" s="8"/>
+      <c r="J81" s="5"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c r="H82" s="8"/>
+      <c r="I82" s="8"/>
+      <c r="J82" s="5"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c r="H83" s="8"/>
+      <c r="I83" s="8"/>
+      <c r="J83" s="5"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c r="H84" s="8"/>
+      <c r="I84" s="8"/>
+      <c r="J84" s="5"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c r="H85" s="8"/>
+      <c r="I85" s="8"/>
+      <c r="J85" s="5"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c r="H86" s="8"/>
+      <c r="I86" s="8"/>
+      <c r="J86" s="5"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="E87" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="3"/>
+      <c r="I87" s="3"/>
+      <c r="J87" s="6"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C88" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="E88" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c r="H88" s="8"/>
+      <c r="I88" s="8"/>
+      <c r="J88" s="5"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B89" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="E64" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="5"/>
-      <c r="I64" s="5"/>
-      <c r="J64" s="8"/>
+      <c r="C89" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c r="H89" s="8"/>
+      <c r="I89" s="8"/>
+      <c r="J89" s="5"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C90" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="E90" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c r="H90" s="8"/>
+      <c r="I90" s="8"/>
+      <c r="J90" s="5"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C91" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="D91" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c r="H91" s="8"/>
+      <c r="I91" s="8"/>
+      <c r="J91" s="5"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C92" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="E92" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c r="H92" s="8"/>
+      <c r="I92" s="8"/>
+      <c r="J92" s="5"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C93" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E93" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c r="H93" s="8"/>
+      <c r="I93" s="8"/>
+      <c r="J93" s="5"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C94" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="E94" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c r="H94" s="8"/>
+      <c r="I94" s="8"/>
+      <c r="J94" s="5"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C95" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="E95" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c r="H95" s="8"/>
+      <c r="I95" s="8"/>
+      <c r="J95" s="5"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C96" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="D96" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="E96" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c r="H96" s="8"/>
+      <c r="I96" s="8"/>
+      <c r="J96" s="5"/>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C97" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="E97" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c r="H97" s="8"/>
+      <c r="I97" s="8"/>
+      <c r="J97" s="5"/>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C98" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="E98" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c r="H98" s="8"/>
+      <c r="I98" s="8"/>
+      <c r="J98" s="5"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C99" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c r="H99" s="8"/>
+      <c r="I99" s="8"/>
+      <c r="J99" s="5"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C100" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="E100" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c r="H100" s="8"/>
+      <c r="I100" s="8"/>
+      <c r="J100" s="5"/>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C101" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="F101" s="3"/>
+      <c r="G101" s="3"/>
+      <c r="H101" s="3"/>
+      <c r="I101" s="3"/>
+      <c r="J101" s="6"/>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="E102" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c r="H102" s="8"/>
+      <c r="I102" s="8"/>
+      <c r="J102" s="5"/>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="E103" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c r="H103" s="8"/>
+      <c r="I103" s="8"/>
+      <c r="J103" s="5"/>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="D104" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="E104" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c r="H104" s="8"/>
+      <c r="I104" s="8"/>
+      <c r="J104" s="5"/>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="E105" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c r="H105" s="8"/>
+      <c r="I105" s="8"/>
+      <c r="J105" s="5"/>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="D106" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="E106" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c r="H106" s="8"/>
+      <c r="I106" s="8"/>
+      <c r="J106" s="5"/>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="D107" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="E107" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c r="H107" s="8"/>
+      <c r="I107" s="8"/>
+      <c r="J107" s="5"/>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="D108" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="E108" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c r="H108" s="8"/>
+      <c r="I108" s="8"/>
+      <c r="J108" s="5"/>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="D109" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E109" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c r="H109" s="8"/>
+      <c r="I109" s="8"/>
+      <c r="J109" s="5"/>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="D110" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="E110" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c r="H110" s="8"/>
+      <c r="I110" s="8"/>
+      <c r="J110" s="5"/>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C111" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="D111" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F111" s="3"/>
+      <c r="G111" s="3"/>
+      <c r="H111" s="3"/>
+      <c r="I111" s="3"/>
+      <c r="J111" s="6"/>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="B112" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="C112" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D112" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="E112" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="F112" s="14"/>
+      <c r="G112" s="14"/>
+      <c r="H112" s="14"/>
+      <c r="I112" s="14"/>
+      <c r="J112" s="10"/>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="D113" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="E113" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c r="H113" s="8"/>
+      <c r="I113" s="8"/>
+      <c r="J113" s="5"/>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="D114" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="E114" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c r="H114" s="8"/>
+      <c r="I114" s="8"/>
+      <c r="J114" s="5"/>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="D115" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="E115" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c r="H115" s="8"/>
+      <c r="I115" s="8"/>
+      <c r="J115" s="5"/>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="D116" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="E116" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c r="H116" s="8"/>
+      <c r="I116" s="8"/>
+      <c r="J116" s="5"/>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="D117" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="E117" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c r="H117" s="8"/>
+      <c r="I117" s="8"/>
+      <c r="J117" s="5"/>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="D118" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="E118" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c r="H118" s="8"/>
+      <c r="I118" s="8"/>
+      <c r="J118" s="5"/>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="D119" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="E119" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c r="H119" s="8"/>
+      <c r="I119" s="8"/>
+      <c r="J119" s="5"/>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="D120" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="E120" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c r="H120" s="8"/>
+      <c r="I120" s="8"/>
+      <c r="J120" s="5"/>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="D121" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="E121" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c r="H121" s="8"/>
+      <c r="I121" s="8"/>
+      <c r="J121" s="5"/>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="D122" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="E122" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c r="H122" s="8"/>
+      <c r="I122" s="8"/>
+      <c r="J122" s="5"/>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="D123" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="E123" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c r="H123" s="8"/>
+      <c r="I123" s="8"/>
+      <c r="J123" s="5"/>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="C124" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="D124" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="E124" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c r="H124" s="8"/>
+      <c r="I124" s="8"/>
+      <c r="J124" s="5"/>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F125" s="3"/>
+      <c r="G125" s="3"/>
+      <c r="H125" s="3"/>
+      <c r="I125" s="3"/>
+      <c r="J125" s="6"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F64"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="27.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="4"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>